--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject24.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject24.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.63895624256629269</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.60809854166409583</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -329,21 +329,21 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.79934061656435373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.86931731463265716</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.80288264433762824</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.92225875438591054</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>0</v>
+        <v>0.88030923091499336</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0</v>
+        <v>0.54726817667160521</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.93425937174813067</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.60487446257912247</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.92120186931090176</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.51034836662315963</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.6407082066821943</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.5593025059874599</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>0</v>
+        <v>0.67640842253082623</v>
       </c>
       <c r="X4" s="0">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="0">
-        <v>0</v>
+        <v>0.81120175744965772</v>
       </c>
       <c r="BC4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.60684333266411916</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>0.52961841709611612</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>0</v>
+        <v>0.92022034291092281</v>
       </c>
     </row>
     <row r="6">
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.80808225055753513</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.82077355338093461</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.95796234799830082</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.67095705173981812</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0</v>
+        <v>0.67608155685767968</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.81958529575290595</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.91779655196081444</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.58652174386306655</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.90115629271469988</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.72825065246976317</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.85930779592357776</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0</v>
+        <v>0.53797313658748291</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.51749518790069327</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.67330947277343012</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="0">
-        <v>0</v>
+        <v>0.74612923805035758</v>
       </c>
       <c r="AZ10" s="0">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>0</v>
+        <v>0.66785521578049289</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.88054119256005969</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.9429700404853858</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.63679351974688592</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.74618595180640113</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.60894465926553332</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.86374338108871473</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.8807913469314449</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.52505184880058131</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.67407724788342716</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>0</v>
+        <v>0.79346755661962942</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.70640893279355288</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.56794902601931074</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.98210630189892212</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.70405869949413957</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="0">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="0">
-        <v>0</v>
+        <v>0.98198837237778958</v>
       </c>
       <c r="BK14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.77452728822519523</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.62401843718083028</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.72027086474916602</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.82166954488914823</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.70449206785102825</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.84889854254370534</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.63789611273252689</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.69833122332121089</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="BD16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.72166353903885438</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.77349210399747637</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.51566568285755099</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.93611581853218706</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>0</v>
+        <v>0.53646568351939261</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.81654111512456695</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.64223696213247328</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.58519860605856766</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.69471989103879106</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.81880879081407321</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.70033176699586219</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.98481964327290594</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.83741133776194343</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.58989392934022156</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.62720479181039179</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.55231864664452157</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.60992074268560614</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.5513298669920671</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.80499624871829334</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.51057682715380259</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0</v>
+        <v>0.83042646486078486</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0</v>
+        <v>0.64381213545812077</v>
       </c>
     </row>
     <row r="22">
@@ -4511,28 +4511,28 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.61161717409620797</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.72461886363713002</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.52775739440566571</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
+        <v>0.99880816297970043</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -4696,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.64134651306910473</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.69284977841050455</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.68839733453472918</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>0</v>
+        <v>0.5512127938223661</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.92152643453651006</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.8209606924472248</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>0</v>
+        <v>0.58577167324570534</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0</v>
+        <v>0.56063201980058297</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>0</v>
+        <v>0.86189220020772517</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.84782604440852827</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.5046917721433104</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="0">
-        <v>0</v>
+        <v>0.66596407646425981</v>
       </c>
       <c r="AQ25" s="0">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.94465338214089156</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.86079265148515938</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.91649806085585217</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0</v>
+        <v>0.52546339966753841</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.98963596850243563</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.78535401328988508</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.59491643411258854</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.84049294064322633</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="AO27" s="0">
-        <v>0</v>
+        <v>0.63547964853644778</v>
       </c>
       <c r="AP27" s="0">
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0</v>
+        <v>0.50207168122295931</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.6193745733145728</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.63535693489416856</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.8178556284680909</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.79090185128250989</v>
       </c>
       <c r="AE28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>0</v>
+        <v>0.96667476201324543</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.78446916850033732</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.52685034332093461</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.88266689008335564</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.91691595679561488</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.7972128563037848</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.80142824902175147</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.85644369242698326</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0</v>
+        <v>0.97649941221101</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>0</v>
+        <v>0.63905147326567224</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6389,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.90108052169649211</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.64375601560210793</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.79455663736173643</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6419,13 +6419,13 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0</v>
+        <v>0.58965816108949554</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.97314033180216231</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.66435285760963214</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.96155272705863581</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>0.84408196771093513</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.52258735333908346</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.65520476521628224</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.89040769825166044</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.58100047184118941</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.54760182438271632</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.68175827703413083</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.63071763262434422</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.82682621006228429</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.70598842774481896</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.64172019865496843</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.87403592681138087</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.5166312172168237</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.79151671989102645</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.69623550122171363</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0</v>
+        <v>0.70986339046161406</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="BG36" s="0">
-        <v>0</v>
+        <v>0.78873223343584997</v>
       </c>
       <c r="BH36" s="0">
         <v>0</v>
@@ -7583,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.51471974615881533</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.73774236064721732</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.75654736195806749</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.85850421307868463</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.99853768234198625</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.69407803937394807</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.73066007560447632</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7906,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>0</v>
+        <v>0.60704402879880137</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
@@ -8064,25 +8064,25 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.82897881749307922</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.95296236911004395</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.53111342635058945</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0</v>
+        <v>0.74247362542893636</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.9033014066625431</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.72715959977181965</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.50926682385524802</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>0</v>
+        <v>0.56579320705586755</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.97086750846422121</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.63107231766906935</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.69866957249491723</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>0</v>
+        <v>0.53468819349548591</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.95102212420748322</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.66673359341335714</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.86014935708963491</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8894,22 +8894,22 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.86669862371510376</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.59344941230539749</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0</v>
+        <v>0.82429493175786406</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>0</v>
+        <v>0.97914190164217874</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.93109576243455505</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.6781833260925616</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.88177913654938389</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.58530540118612895</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.93092830359561729</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.84542485641023668</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.96523219314694386</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="0">
-        <v>0</v>
+        <v>0.86228735863425354</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="BM45" s="0">
-        <v>0</v>
+        <v>0.94735908466948482</v>
       </c>
       <c r="BN45" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.80816457664296204</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.53089721810030999</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.97901299612510306</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.72242426031536211</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0</v>
+        <v>0.94512761948839019</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.90524404774644851</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.90794702149239148</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.91444466491293563</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9757,10 +9757,10 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>0</v>
+        <v>0.99511788444721039</v>
       </c>
       <c r="BB47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0</v>
+        <v>0.65930128492379114</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.52489930890404246</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.71824349836465862</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.87941771668975044</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.70601494987410884</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0</v>
+        <v>0.9475752766657366</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0</v>
+        <v>0.81855478447151642</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.84886673395194756</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>0</v>
+        <v>0.84951329148169419</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.73581894102490286</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.88362049110187613</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.75493340389955721</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.93942789211027888</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0</v>
+        <v>0.6401731136769091</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0</v>
+        <v>0.65878215783106009</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.69472039436328981</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.89736767643153414</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10766,13 +10766,13 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0</v>
+        <v>0.68393561517407897</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
       </c>
       <c r="AU52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.66746849302922839</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.80502815432447261</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.71186152836875549</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10978,10 +10978,10 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0</v>
+        <v>0.79255778965449986</v>
       </c>
       <c r="AV53" s="0">
-        <v>0</v>
+        <v>0.96565259189458463</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11055,13 +11055,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>0</v>
+        <v>0.95491093808994687</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.58562295591101887</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.95287321740836317</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.71024438263182876</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>0</v>
+        <v>0.64649276319436522</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.52694090176568364</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.51166143230084149</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.92805947633667885</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>0</v>
+        <v>0.53532469883181066</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0</v>
+        <v>0.87481657035345406</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.65842118788504811</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.96769333295502058</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.67086291610937676</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.81333574323893343</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0</v>
+        <v>0.86844431324835003</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.8176795350878695</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.83364884431275554</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.80129850640792566</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>0</v>
+        <v>0.72108294577756771</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12035,25 +12035,25 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.69729713827424933</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.54189448574615984</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.88672641982371048</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>0</v>
+        <v>0.63250922407430132</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>0</v>
+        <v>0.99315224001567226</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="0">
-        <v>0</v>
+        <v>0.6138243597603571</v>
       </c>
       <c r="AK59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.77026445521701792</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.79531078483046769</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.53199407692475476</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="BM60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" s="0">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.76151541340498952</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.74073947110196303</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.76454872628554904</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.98548510018685909</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0</v>
+        <v>0.50676337998112786</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0</v>
+        <v>0.50904410729898097</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12865,25 +12865,25 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>0</v>
+        <v>0.94851904636538076</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.73020632573576127</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.58977222544013497</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.64282699052388115</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.58374554585290095</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.543121234566174</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>0</v>
+        <v>0.75265097011463433</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.99921192093917299</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.97797979022975201</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.78069521176080414</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0</v>
+        <v>0.73331483409337261</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13438,13 +13438,13 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0</v>
+        <v>0.73888765068912898</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>0</v>
+        <v>0.81348906552491429</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13498,16 +13498,16 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.5442727475455722</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.57151694759482785</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.85158544907094091</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.63866265922580956</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.76631556915614096</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.94432026082823173</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.83010604949956623</v>
       </c>
     </row>
     <row r="67">
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>0</v>
+        <v>0.70885439023599806</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="BC67" s="0">
-        <v>0</v>
+        <v>0.61571656348811576</v>
       </c>
       <c r="BD67" s="0">
         <v>0</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.59226235175131436</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0</v>
+        <v>0.69064220749026739</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0</v>
+        <v>0.98186664466475138</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.7438541659161062</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject24.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject24.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.63895624256629269</v>
+        <v>0.86931731463265716</v>
       </c>
       <c r="C1" s="0">
-        <v>0.60809854166409583</v>
+        <v>0.93425937174813067</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>0.88030923091499336</v>
+        <v>0.97914190164217874</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.54726817667160521</v>
+        <v>0.84886673395194756</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0.93425937174813067</v>
       </c>
       <c r="B3" s="0">
-        <v>0.60487446257912247</v>
+        <v>0.80288264433762824</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.92120186931090176</v>
       </c>
       <c r="E3" s="0">
-        <v>0.51034836662315963</v>
+        <v>0.60684333266411916</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.6407082066821943</v>
+        <v>0.92225875438591054</v>
       </c>
       <c r="C4" s="0">
-        <v>0.5593025059874599</v>
+        <v>0.92120186931090176</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>0.67640842253082623</v>
+        <v>0.99880816297970043</v>
       </c>
       <c r="X4" s="0">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="0">
-        <v>0.81120175744965772</v>
+        <v>0.95491093808994687</v>
       </c>
       <c r="BC4" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0.52961841709611612</v>
+        <v>0.5513298669920671</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.80808225055753513</v>
+        <v>0.95796234799830082</v>
       </c>
       <c r="H6" s="0">
         <v>0.82077355338093461</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.67095705173981812</v>
+        <v>0.90115629271469988</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0.67608155685767968</v>
+        <v>0.98548510018685909</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.81958529575290595</v>
+        <v>0.82077355338093461</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0.90115629271469988</v>
       </c>
       <c r="H9" s="0">
-        <v>0.72825065246976317</v>
+        <v>0.91779655196081444</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0.53797313658748291</v>
+        <v>0.75265097011463433</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.51749518790069327</v>
+        <v>0.58652174386306655</v>
       </c>
       <c r="I10" s="0">
-        <v>0.67330947277343012</v>
+        <v>0.85930779592357776</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>0.66785521578049289</v>
+        <v>0.73331483409337261</v>
       </c>
       <c r="BN10" s="0">
         <v>0.88054119256005969</v>
@@ -2224,7 +2224,7 @@
         <v>0.9429700404853858</v>
       </c>
       <c r="M11" s="0">
-        <v>0.63679351974688592</v>
+        <v>0.8807913469314449</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.74618595180640113</v>
+        <v>0.9429700404853858</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0.8807913469314449</v>
       </c>
       <c r="L13" s="0">
-        <v>0.52505184880058131</v>
+        <v>0.60894465926553332</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.67407724788342716</v>
+        <v>0.77452728822519523</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0.70640893279355288</v>
+        <v>0.80816457664296204</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.56794902601931074</v>
+        <v>0.86374338108871473</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.98210630189892212</v>
       </c>
       <c r="P14" s="0">
-        <v>0.70405869949413957</v>
+        <v>0.70449206785102825</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0.77452728822519523</v>
       </c>
       <c r="N15" s="0">
-        <v>0.62401843718083028</v>
+        <v>0.98210630189892212</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.72027086474916602</v>
+        <v>0.84889854254370534</v>
       </c>
       <c r="Q15" s="0">
         <v>0.82166954488914823</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.63789611273252689</v>
+        <v>0.77349210399747637</v>
       </c>
       <c r="R16" s="0">
-        <v>0.69833122332121089</v>
+        <v>0.81654111512456695</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.72166353903885438</v>
+        <v>0.82166954488914823</v>
       </c>
       <c r="P17" s="0">
         <v>0.77349210399747637</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.51566568285755099</v>
+        <v>0.64223696213247328</v>
       </c>
       <c r="S17" s="0">
         <v>0.93611581853218706</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.53646568351939261</v>
+        <v>0.97649941221101</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.58519860605856766</v>
+        <v>0.70033176699586219</v>
       </c>
       <c r="T18" s="0">
         <v>0.69471989103879106</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.81880879081407321</v>
+        <v>0.93611581853218706</v>
       </c>
       <c r="R19" s="0">
         <v>0.70033176699586219</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.58989392934022156</v>
+        <v>0.69471989103879106</v>
       </c>
       <c r="S20" s="0">
-        <v>0.62720479181039179</v>
+        <v>0.98481964327290594</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.55231864664452157</v>
+        <v>0.80499624871829334</v>
       </c>
       <c r="V20" s="0">
-        <v>0.60992074268560614</v>
+        <v>0.61161717409620797</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.51057682715380259</v>
+        <v>0.64134651306910473</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0.64381213545812077</v>
+        <v>0.98186664466475138</v>
       </c>
     </row>
     <row r="22">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.52775739440566571</v>
+        <v>0.84782604440852827</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0.64134651306910473</v>
       </c>
       <c r="V23" s="0">
-        <v>0.69284977841050455</v>
+        <v>0.72461886363713002</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.68839733453472918</v>
+        <v>0.92152643453651006</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>0.5512127938223661</v>
+        <v>0.87481657035345406</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.8209606924472248</v>
+        <v>0.94465338214089156</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>0.58577167324570534</v>
+        <v>0.63905147326567224</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.56063201980058297</v>
+        <v>0.84408196771093513</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.5046917721433104</v>
+        <v>0.98963596850243563</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0.52546339966753841</v>
+        <v>0.70885439023599806</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0.98963596850243563</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.78535401328988508</v>
+        <v>0.86079265148515938</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.59491643411258854</v>
+        <v>0.8178556284680909</v>
       </c>
       <c r="AC27" s="0">
         <v>0.84049294064322633</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0.50207168122295931</v>
+        <v>0.79346755661962942</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0.6193745733145728</v>
+        <v>0.83042646486078486</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.63535693489416856</v>
+        <v>0.91649806085585217</v>
       </c>
       <c r="AA28" s="0">
         <v>0.8178556284680909</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.79090185128250989</v>
+        <v>0.91691595679561488</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>0.96667476201324543</v>
+        <v>0.99315224001567226</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.78446916850033732</v>
+        <v>0.84049294064322633</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.52685034332093461</v>
+        <v>0.7972128563037848</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.88266689008335564</v>
+        <v>0.90108052169649211</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.80142824902175147</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.85644369242698326</v>
+        <v>0.97314033180216231</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0.90108052169649211</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.64375601560210793</v>
+        <v>0.80142824902175147</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0.58965816108949554</v>
+        <v>0.74247362542893636</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.52258735333908346</v>
+        <v>0.79455663736173643</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.65520476521628224</v>
+        <v>0.66435285760963214</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.58100047184118941</v>
+        <v>0.96155272705863581</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.54760182438271632</v>
+        <v>0.82682621006228429</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.68175827703413083</v>
+        <v>0.87403592681138087</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.63071763262434422</v>
+        <v>0.89040769825166044</v>
       </c>
       <c r="AH35" s="0">
         <v>0.82682621006228429</v>
@@ -7440,7 +7440,7 @@
         <v>0.87403592681138087</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.5166312172168237</v>
+        <v>0.70598842774481896</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.79151671989102645</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.69623550122171363</v>
+        <v>0.99853768234198625</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.51471974615881533</v>
+        <v>0.64172019865496843</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.73774236064721732</v>
+        <v>0.79151671989102645</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0.99853768234198625</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.69407803937394807</v>
+        <v>0.75654736195806749</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.73066007560447632</v>
+        <v>0.9033014066625431</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>0.60704402879880137</v>
+        <v>0.64649276319436522</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.82897881749307922</v>
+        <v>0.85850421307868463</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0.95296236911004395</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.53111342635058945</v>
+        <v>0.97086750846422121</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8276,13 +8276,13 @@
         <v>0.9033014066625431</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.72715959977181965</v>
+        <v>0.95296236911004395</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.50926682385524802</v>
+        <v>0.63107231766906935</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>0.56579320705586755</v>
+        <v>0.63547964853644778</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.69866957249491723</v>
+        <v>0.95102212420748322</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>0.53468819349548591</v>
+        <v>0.66596407646425981</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.66673359341335714</v>
+        <v>0.86669862371510376</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.86014935708963491</v>
+        <v>0.93109576243455505</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.59344941230539749</v>
+        <v>0.6781833260925616</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.88177913654938389</v>
+        <v>0.93092830359561729</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0.58530540118612895</v>
+        <v>0.83741133776194343</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.53089721810030999</v>
+        <v>0.84542485641023668</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.90524404774644851</v>
+        <v>0.96523219314694386</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.90794702149239148</v>
+        <v>0.97901299612510306</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0.65930128492379114</v>
+        <v>0.72108294577756771</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.52489930890404246</v>
+        <v>0.72242426031536211</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.71824349836465862</v>
+        <v>0.91444466491293563</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0.87941771668975044</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.70601494987410884</v>
+        <v>0.88362049110187613</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0.9475752766657366</v>
+        <v>0.96565259189458463</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0.81855478447151642</v>
+        <v>0.86844431324835003</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>0.84951329148169419</v>
+        <v>0.86189220020772517</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.73581894102490286</v>
+        <v>0.87941771668975044</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0.6401731136769091</v>
+        <v>0.74612923805035758</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0.65878215783106009</v>
+        <v>0.70986339046161406</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.69472039436328981</v>
+        <v>0.75493340389955721</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0.68393561517407897</v>
+        <v>0.86228735863425354</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.66746849302922839</v>
+        <v>0.93942789211027888</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.80502815432447261</v>
+        <v>0.89736767643153414</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0.79255778965449986</v>
+        <v>0.99511788444721039</v>
       </c>
       <c r="AV53" s="0">
         <v>0.96565259189458463</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.58562295591101887</v>
+        <v>0.71186152836875549</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.52694090176568364</v>
+        <v>0.95287321740836317</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.51166143230084149</v>
+        <v>0.96769333295502058</v>
       </c>
       <c r="BE55" s="0">
         <v>0.92805947633667885</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>0.53532469883181066</v>
+        <v>0.61571656348811576</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.65842118788504811</v>
+        <v>0.71024438263182876</v>
       </c>
       <c r="BC56" s="0">
         <v>0.96769333295502058</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.67086291610937676</v>
+        <v>0.83364884431275554</v>
       </c>
       <c r="BF56" s="0">
         <v>0.81333574323893343</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.8176795350878695</v>
+        <v>0.92805947633667885</v>
       </c>
       <c r="BD57" s="0">
         <v>0.83364884431275554</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.69729713827424933</v>
+        <v>0.81333574323893343</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.54189448574615984</v>
+        <v>0.80129850640792566</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>0.63250922407430132</v>
+        <v>0.94851904636538076</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="0">
-        <v>0.6138243597603571</v>
+        <v>0.78873223343584997</v>
       </c>
       <c r="AK59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.77026445521701792</v>
+        <v>0.88672641982371048</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0.79531078483046769</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.53199407692475476</v>
+        <v>0.73020632573576127</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.76151541340498952</v>
+        <v>0.79531078483046769</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0.50676337998112786</v>
+        <v>0.98198837237778958</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0.50904410729898097</v>
+        <v>0.94512761948839019</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0.73020632573576127</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.58977222544013497</v>
+        <v>0.74073947110196303</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.64282699052388115</v>
+        <v>0.76454872628554904</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.58374554585290095</v>
+        <v>0.99921192093917299</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.543121234566174</v>
+        <v>0.5442727475455722</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13438,13 +13438,13 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0.73888765068912898</v>
+        <v>0.82429493175786406</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>0.81348906552491429</v>
+        <v>0.94735908466948482</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13501,13 +13501,13 @@
         <v>0.5442727475455722</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.57151694759482785</v>
+        <v>0.97797979022975201</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.85158544907094091</v>
+        <v>0.94432026082823173</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0.63866265922580956</v>
+        <v>0.88054119256005969</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.76631556915614096</v>
+        <v>0.78069521176080414</v>
       </c>
       <c r="BM66" s="0">
         <v>0.94432026082823173</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.59226235175131436</v>
+        <v>0.79934061656435373</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0.69064220749026739</v>
+        <v>0.92022034291092281</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.7438541659161062</v>
+        <v>0.83010604949956623</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>
